--- a/biology/Botanique/Ségalin/Ségalin.xlsx
+++ b/biology/Botanique/Ségalin/Ségalin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9galin</t>
+          <t>Ségalin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ségalin N[1],[N 1] est un cépage de cuve noir récent (1957), création de l'INRA. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ségalin N,[N 1] est un cépage de cuve noir récent (1957), création de l'INRA. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9galin</t>
+          <t>Ségalin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ségalin est né du métissage intraspécifique du jurançon noir N et du portugais bleu N réalisé en 1957. Après de nombreuses années de vinification destinées à l'évaluer, il a été homologué en 1976[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ségalin est né du métissage intraspécifique du jurançon noir N et du portugais bleu N réalisé en 1957. Après de nombreuses années de vinification destinées à l'évaluer, il a été homologué en 1976.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9galin</t>
+          <t>Ségalin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jeune rameau est cotonneux avec des jeunes feuilles vertes.
 Les feuilles adultes sont orbiculaires, vert foncé à 3 ou 5 lobes, un sinus pétiolaire en U, ferme ou à bords légèrement recouvrant, à dents courtes et rectilignes.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9galin</t>
+          <t>Ségalin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culturales
-En climat méditerranéen, il se montre peu vigoureux. Il est plus a son aise sous un climat plus tempéré. Il peut être conduit en taille longe modérée et palissé. 
-Sensibilité
-Il craint le dessèchement de la rafle et la carence en magnésie, surtout sur porte-greffe SO4. En revanche, il résiste plutôt bien à la pourriture grise.
-Technologique
-Il donne des vins colorés, charpentés et tanniques, corsé et aromatique. 
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En climat méditerranéen, il se montre peu vigoureux. Il est plus a son aise sous un climat plus tempéré. Il peut être conduit en taille longe modérée et palissé. 
 </t>
         </is>
       </c>
@@ -593,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S%C3%A9galin</t>
+          <t>Ségalin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +625,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sensibilité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il craint le dessèchement de la rafle et la carence en magnésie, surtout sur porte-greffe SO4. En revanche, il résiste plutôt bien à la pourriture grise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ségalin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9galin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Technologique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il donne des vins colorés, charpentés et tanniques, corsé et aromatique. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ségalin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9galin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
